--- a/region_table/DEU_PHD_region_table.xlsx
+++ b/region_table/DEU_PHD_region_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="146">
   <si>
     <t>Use</t>
   </si>
@@ -297,12 +297,6 @@
     <t>pose</t>
   </si>
   <si>
-    <t>Posenreferenz</t>
-  </si>
-  <si>
-    <t>Haltungsreferenzen</t>
-  </si>
-  <si>
     <t>artistic style</t>
   </si>
   <si>
@@ -355,19 +349,132 @@
   </si>
   <si>
     <t>Filmdateien</t>
+  </si>
+  <si>
+    <t>Transform</t>
+  </si>
+  <si>
+    <t>Ändern</t>
+  </si>
+  <si>
+    <t>Erfinden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> your look</t>
+  </si>
+  <si>
+    <t>Ihren Look</t>
+  </si>
+  <si>
+    <t>To reference an image's outline</t>
+  </si>
+  <si>
+    <t>Um den Umriss eines Bilds zu referenzieren</t>
+  </si>
+  <si>
+    <t>Um den Umriss des Bilds zu referenzieren</t>
+  </si>
+  <si>
+    <t>ausgelastet</t>
+  </si>
+  <si>
+    <t>beschäftigt</t>
+  </si>
+  <si>
+    <t>busy</t>
+  </si>
+  <si>
+    <t>Damit Sie ... verwenden können</t>
+  </si>
+  <si>
+    <t>To use</t>
+  </si>
+  <si>
+    <t>Um … verwenden</t>
+  </si>
+  <si>
+    <t>%s-Bilds</t>
+  </si>
+  <si>
+    <t>%s Bildes</t>
+  </si>
+  <si>
+    <t>%s image</t>
+  </si>
+  <si>
+    <t>You're about to leave the current feature</t>
+  </si>
+  <si>
+    <t>Sie beenden gerade die aktuelle Funktion</t>
+  </si>
+  <si>
+    <t>Sie sind dabei, die aktuelle Funktion zu verlassen</t>
+  </si>
+  <si>
+    <t>Are you sure you want to continue</t>
+  </si>
+  <si>
+    <t>Möchten Sie wirklich fortfahren</t>
+  </si>
+  <si>
+    <t>Sind Sie sicher, dass Sie fortfahren möchten</t>
+  </si>
+  <si>
+    <t>Upgrade Text to Image model</t>
+  </si>
+  <si>
+    <t>Text zu Bild-Modell aktualisieren</t>
+  </si>
+  <si>
+    <t>Aktualisieren Sie das Text zu Bild-Modell</t>
+  </si>
+  <si>
+    <t>die Pose</t>
+  </si>
+  <si>
+    <t>let it be</t>
+  </si>
+  <si>
+    <t>es von...lassen</t>
+  </si>
+  <si>
+    <t>überlassen</t>
+  </si>
+  <si>
+    <t>Ihr Aussehen</t>
+  </si>
+  <si>
+    <t>let AI Art transform it into</t>
+  </si>
+  <si>
+    <t>es von KI-Kunst in…verwandeln lassen</t>
+  </si>
+  <si>
+    <t>KI-Kunst es in...umwandeln lassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wählen </t>
+  </si>
+  <si>
+    <t>auswählen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="2">
@@ -390,11 +497,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -697,18 +805,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -719,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -730,7 +838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -741,7 +849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -752,7 +860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -763,7 +871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -774,7 +882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -785,7 +893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -796,7 +904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -807,7 +915,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -818,7 +926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -827,7 +935,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -838,7 +946,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -849,7 +957,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -860,73 +968,73 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
@@ -937,249 +1045,247 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:3" ht="30">
+      <c r="A33" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
@@ -1187,62 +1293,170 @@
         <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30">
+      <c r="A49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30">
+      <c r="A51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30">
+      <c r="A53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30">
+      <c r="A54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30">
+      <c r="A55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30">
+      <c r="A57" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>